--- a/evaluation/performance/results/twitter-finagle.xlsx
+++ b/evaluation/performance/results/twitter-finagle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\performance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0983C-98A4-4568-86BC-38F1A29FDAFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7606E1F-04E1-4184-AD77-AFF57EC0CF13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/evaluation/performance/results/twitter-finagle.xlsx
+++ b/evaluation/performance/results/twitter-finagle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\performance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7606E1F-04E1-4184-AD77-AFF57EC0CF13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91723FD1-2400-420C-B009-519798D1B7C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finagle-chirper" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +83,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
@@ -416,733 +423,735 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>16743346451</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16467467155</v>
+      <c r="A2" s="2">
+        <v>9745273830</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9879991499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>9745273830</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9879991499</v>
+      <c r="A3" s="1">
+        <v>9377178369</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9378030399</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>9377178369</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9378030399</v>
+      <c r="A4" s="2">
+        <v>9070082206</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9150007974</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>9070082206</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9150007974</v>
+      <c r="A5" s="1">
+        <v>8794387723</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8863480693</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>8794387723</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8863480693</v>
+      <c r="A6" s="2">
+        <v>8659191528</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8761623655</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>8659191528</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8761623655</v>
+      <c r="A7" s="1">
+        <v>8660023270</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8707384234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8660023270</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8707384234</v>
+      <c r="A8" s="2">
+        <v>8522997996</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8531107963</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8522997996</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8531107963</v>
+      <c r="A9" s="1">
+        <v>8329264011</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8427648370</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8329264011</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8427648370</v>
+      <c r="A10" s="2">
+        <v>8190698635</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8289009930</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8190698635</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8289009930</v>
+      <c r="A11" s="1">
+        <v>8345124884</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8494633917</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>8345124884</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8494633917</v>
+      <c r="A12" s="2">
+        <v>8136250954</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8212050207</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>8136250954</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8212050207</v>
+      <c r="A13" s="1">
+        <v>8047704841</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8186406732</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>8047704841</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8186406732</v>
+      <c r="A14" s="2">
+        <v>8055038718</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8209334126</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>8055038718</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8209334126</v>
+      <c r="A15" s="1">
+        <v>7907682560</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8295435003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7907682560</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8295435003</v>
+      <c r="A16" s="2">
+        <v>7913005390</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7973997509</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>7913005390</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7973997509</v>
+      <c r="A17" s="1">
+        <v>8030649314</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7985085582</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8030649314</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7985085582</v>
+      <c r="A18" s="2">
+        <v>7867048458</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7918995448</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>7867048458</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7918995448</v>
+      <c r="A19" s="1">
+        <v>7731606941</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7769384233</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>7731606941</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7769384233</v>
+      <c r="A20" s="2">
+        <v>8114659906</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7711093950</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>8114659906</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7711093950</v>
+      <c r="A21" s="1">
+        <v>8071274768</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7836780250</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>8071274768</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7836780250</v>
+      <c r="A22" s="2">
+        <v>8211148812</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7921867547</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>8211148812</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7921867547</v>
+      <c r="A23" s="1">
+        <v>8299636496</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7717154187</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>8299636496</v>
-      </c>
-      <c r="B24" s="1">
-        <v>7717154187</v>
+      <c r="A24" s="2">
+        <v>8692914772</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7724171134</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>8692914772</v>
-      </c>
-      <c r="B25" s="2">
-        <v>7724171134</v>
+      <c r="A25" s="1">
+        <v>8740148154</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7825587526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>8740148154</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7825587526</v>
+      <c r="A26" s="2">
+        <v>9110356554</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8024215612</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>9110356554</v>
-      </c>
-      <c r="B27" s="2">
-        <v>8024215612</v>
+      <c r="A27" s="1">
+        <v>9099285943</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8395881920</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>9099285943</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8395881920</v>
+      <c r="A28" s="2">
+        <v>9160800459</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8475990927</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9160800459</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8475990927</v>
+      <c r="A29" s="1">
+        <v>9304030137</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8522681990</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>9304030137</v>
-      </c>
-      <c r="B30" s="1">
-        <v>8522681990</v>
+      <c r="A30" s="2">
+        <v>9149379717</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8533336106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9149379717</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8533336106</v>
+      <c r="A31" s="1">
+        <v>9164338348</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8770144290</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>9164338348</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8770144290</v>
+      <c r="A32" s="2">
+        <v>9250870231</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8916585959</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>9250870231</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8916585959</v>
+      <c r="A33" s="1">
+        <v>9398520223</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9061916417</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>9398520223</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9061916417</v>
+      <c r="A34" s="2">
+        <v>9558970426</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9072857316</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>9558970426</v>
-      </c>
-      <c r="B35" s="2">
-        <v>9072857316</v>
+      <c r="A35" s="1">
+        <v>9165903305</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9092932411</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>9165903305</v>
-      </c>
-      <c r="B36" s="1">
-        <v>9092932411</v>
+      <c r="A36" s="2">
+        <v>9332295311</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9263322446</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>9332295311</v>
-      </c>
-      <c r="B37" s="2">
-        <v>9263322446</v>
+      <c r="A37" s="1">
+        <v>9736447058</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9273927366</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>9736447058</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9273927366</v>
+      <c r="A38" s="2">
+        <v>9216691873</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9092608880</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>9216691873</v>
-      </c>
-      <c r="B39" s="2">
-        <v>9092608880</v>
+      <c r="A39" s="1">
+        <v>9436381963</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9284335805</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>9436381963</v>
-      </c>
-      <c r="B40" s="1">
-        <v>9284335805</v>
+      <c r="A40" s="2">
+        <v>9221191424</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9023668020</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>9221191424</v>
-      </c>
-      <c r="B41" s="2">
-        <v>9023668020</v>
+      <c r="A41" s="1">
+        <v>9382389837</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9341215183</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>9382389837</v>
-      </c>
-      <c r="B42" s="1">
-        <v>9341215183</v>
+      <c r="A42" s="2">
+        <v>9239281071</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9070101556</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>9239281071</v>
-      </c>
-      <c r="B43" s="2">
-        <v>9070101556</v>
+      <c r="A43" s="1">
+        <v>9013269153</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9000386095</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>9013269153</v>
-      </c>
-      <c r="B44" s="1">
-        <v>9000386095</v>
+      <c r="A44" s="2">
+        <v>9140280562</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8897414788</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>9140280562</v>
-      </c>
-      <c r="B45" s="2">
-        <v>8897414788</v>
+      <c r="A45" s="1">
+        <v>9174412717</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9211012423</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>9174412717</v>
-      </c>
-      <c r="B46" s="1">
-        <v>9211012423</v>
+      <c r="A46" s="2">
+        <v>9177594930</v>
+      </c>
+      <c r="B46" s="2">
+        <v>8928786466</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>9177594930</v>
-      </c>
-      <c r="B47" s="2">
-        <v>8928786466</v>
+      <c r="A47" s="1">
+        <v>9446510486</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9211112992</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>9446510486</v>
-      </c>
-      <c r="B48" s="1">
-        <v>9211112992</v>
+      <c r="A48" s="2">
+        <v>9290329502</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9246529328</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>9290329502</v>
-      </c>
-      <c r="B49" s="2">
-        <v>9246529328</v>
+      <c r="A49" s="1">
+        <v>9587827618</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9400296081</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>9587827618</v>
-      </c>
-      <c r="B50" s="1">
-        <v>9400296081</v>
+      <c r="A50" s="2">
+        <v>9447205713</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9350300483</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>9447205713</v>
-      </c>
-      <c r="B51" s="2">
-        <v>9350300483</v>
+      <c r="A51" s="1">
+        <v>9081776797</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9204662991</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>9081776797</v>
-      </c>
-      <c r="B52" s="1">
-        <v>9204662991</v>
+      <c r="A52" s="2">
+        <v>9346233426</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9148178079</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>9346233426</v>
-      </c>
-      <c r="B53" s="2">
-        <v>9148178079</v>
+      <c r="A53" s="1">
+        <v>9446268115</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8961635053</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>9446268115</v>
-      </c>
-      <c r="B54" s="1">
-        <v>8961635053</v>
+      <c r="A54" s="2">
+        <v>9524869292</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9144927534</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>9524869292</v>
-      </c>
-      <c r="B55" s="2">
-        <v>9144927534</v>
+      <c r="A55" s="1">
+        <v>9483371501</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9433997753</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>9483371501</v>
-      </c>
-      <c r="B56" s="1">
-        <v>9433997753</v>
+      <c r="A56" s="2">
+        <v>9521767555</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9167407730</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>9521767555</v>
-      </c>
-      <c r="B57" s="2">
-        <v>9167407730</v>
+      <c r="A57" s="1">
+        <v>9492631334</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9172020348</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>9492631334</v>
-      </c>
-      <c r="B58" s="1">
-        <v>9172020348</v>
+      <c r="A58" s="2">
+        <v>9269136647</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9157916597</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>9269136647</v>
-      </c>
-      <c r="B59" s="2">
-        <v>9157916597</v>
+      <c r="A59" s="1">
+        <v>9481810187</v>
+      </c>
+      <c r="B59" s="1">
+        <v>9102596716</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>9481810187</v>
-      </c>
-      <c r="B60" s="1">
-        <v>9102596716</v>
+      <c r="A60" s="2">
+        <v>9121250374</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8857137695</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>9121250374</v>
-      </c>
-      <c r="B61" s="2">
-        <v>8857137695</v>
+      <c r="A61" s="1">
+        <v>9143459059</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8902098863</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>9143459059</v>
-      </c>
-      <c r="B62" s="1">
-        <v>8902098863</v>
+      <c r="A62" s="2">
+        <v>9012954828</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9145303493</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>9012954828</v>
-      </c>
-      <c r="B63" s="2">
-        <v>9145303493</v>
+      <c r="A63" s="1">
+        <v>8758897309</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9029044989</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>8758897309</v>
-      </c>
-      <c r="B64" s="1">
-        <v>9029044989</v>
+      <c r="A64" s="2">
+        <v>8861236230</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9165161550</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>8861236230</v>
-      </c>
-      <c r="B65" s="2">
-        <v>9165161550</v>
+      <c r="A65" s="1">
+        <v>8794832817</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8996651756</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>8794832817</v>
-      </c>
-      <c r="B66" s="1">
-        <v>8996651756</v>
+      <c r="A66" s="2">
+        <v>9000999335</v>
+      </c>
+      <c r="B66" s="2">
+        <v>8861076892</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>9000999335</v>
-      </c>
-      <c r="B67" s="2">
-        <v>8861076892</v>
+      <c r="A67" s="1">
+        <v>9085976613</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9203336049</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>9085976613</v>
-      </c>
-      <c r="B68" s="1">
-        <v>9203336049</v>
+      <c r="A68" s="2">
+        <v>9226211963</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9395659031</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>9226211963</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9395659031</v>
+      <c r="A69" s="1">
+        <v>9178764814</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9044486842</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>9178764814</v>
-      </c>
-      <c r="B70" s="1">
-        <v>9044486842</v>
+      <c r="A70" s="2">
+        <v>9192922858</v>
+      </c>
+      <c r="B70" s="2">
+        <v>9267891584</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>9192922858</v>
-      </c>
-      <c r="B71" s="2">
-        <v>9267891584</v>
+      <c r="A71" s="1">
+        <v>9087607055</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9412961732</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>9087607055</v>
-      </c>
-      <c r="B72" s="1">
-        <v>9412961732</v>
+      <c r="A72" s="2">
+        <v>8994028824</v>
+      </c>
+      <c r="B72" s="2">
+        <v>9367768851</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>8994028824</v>
-      </c>
-      <c r="B73" s="2">
-        <v>9367768851</v>
+      <c r="A73" s="1">
+        <v>9047883087</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9341367459</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>9047883087</v>
-      </c>
-      <c r="B74" s="1">
-        <v>9341367459</v>
+      <c r="A74" s="2">
+        <v>8899886951</v>
+      </c>
+      <c r="B74" s="2">
+        <v>9227531214</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>8899886951</v>
-      </c>
-      <c r="B75" s="2">
-        <v>9227531214</v>
+      <c r="A75" s="1">
+        <v>8988952832</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8831464220</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>8988952832</v>
-      </c>
-      <c r="B76" s="1">
-        <v>8831464220</v>
+      <c r="A76" s="2">
+        <v>9074994603</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8879951316</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>9074994603</v>
-      </c>
-      <c r="B77" s="2">
-        <v>8879951316</v>
+      <c r="A77" s="1">
+        <v>9252632889</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9220283770</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>9252632889</v>
-      </c>
-      <c r="B78" s="1">
-        <v>9220283770</v>
+      <c r="A78" s="2">
+        <v>9343731591</v>
+      </c>
+      <c r="B78" s="2">
+        <v>8957533545</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>9343731591</v>
-      </c>
-      <c r="B79" s="2">
-        <v>8957533545</v>
+      <c r="A79" s="1">
+        <v>9001529793</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9344119117</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>9001529793</v>
-      </c>
-      <c r="B80" s="1">
-        <v>9344119117</v>
+      <c r="A80" s="2">
+        <v>8958704049</v>
+      </c>
+      <c r="B80" s="2">
+        <v>9182923867</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>8958704049</v>
-      </c>
-      <c r="B81" s="2">
-        <v>9182923867</v>
+      <c r="A81" s="1">
+        <v>9185112525</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9257724442</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>9185112525</v>
-      </c>
-      <c r="B82" s="1">
-        <v>9257724442</v>
+      <c r="A82" s="2">
+        <v>8906942675</v>
+      </c>
+      <c r="B82" s="2">
+        <v>9227313576</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>8906942675</v>
-      </c>
-      <c r="B83" s="2">
-        <v>9227313576</v>
+      <c r="A83" s="1">
+        <v>9191063105</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8933703379</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>9191063105</v>
-      </c>
-      <c r="B84" s="1">
-        <v>8933703379</v>
+      <c r="A84" s="2">
+        <v>8843709211</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9007721613</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>8843709211</v>
-      </c>
-      <c r="B85" s="2">
-        <v>9007721613</v>
+      <c r="A85" s="1">
+        <v>9548741703</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9251823933</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>9548741703</v>
-      </c>
-      <c r="B86" s="1">
-        <v>9251823933</v>
+      <c r="A86" s="2">
+        <v>9658210843</v>
+      </c>
+      <c r="B86" s="2">
+        <v>9182594343</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>9658210843</v>
-      </c>
-      <c r="B87" s="2">
-        <v>9182594343</v>
+      <c r="A87" s="1">
+        <v>9336482741</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9126984039</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>9336482741</v>
-      </c>
-      <c r="B88" s="1">
-        <v>9126984039</v>
+      <c r="A88" s="2">
+        <v>8793727799</v>
+      </c>
+      <c r="B88" s="2">
+        <v>8868929399</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>8793727799</v>
-      </c>
-      <c r="B89" s="2">
-        <v>8868929399</v>
+      <c r="A89" s="1">
+        <v>8821412630</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8844487055</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>8821412630</v>
-      </c>
-      <c r="B90" s="1">
-        <v>8844487055</v>
+      <c r="A90" s="2">
+        <v>9189027814</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8939383898</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>9189027814</v>
-      </c>
-      <c r="B91" s="2">
-        <v>8939383898</v>
+      <c r="A91" s="3">
+        <f>AVERAGE(A2:A90)</f>
+        <v>8987273155.8539333</v>
+      </c>
+      <c r="B91" s="3">
+        <f>AVERAGE(B2:B90)</f>
+        <v>8865163879.11236</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <f>AVERAGE(A2:A91)</f>
-        <v>9073451748.0222225</v>
-      </c>
-      <c r="B92" s="3">
-        <f>AVERAGE(B2:B91)</f>
-        <v>8949633915.5111103</v>
+      <c r="A92" s="4">
+        <f>_xlfn.STDEV.P(A2:A90)</f>
+        <v>478881042.90152913</v>
+      </c>
+      <c r="B92" s="4">
+        <f>_xlfn.STDEV.P(B2:B90)</f>
+        <v>490896123.55004662</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C24C974-17FF-4621-9031-40BB3662FCAB}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -1173,109 +1182,111 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>22410403982</v>
-      </c>
-      <c r="B2" s="1">
-        <v>21472857347</v>
+      <c r="A2" s="2">
+        <v>16196765449</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14140505934</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>16196765449</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14140505934</v>
+      <c r="A3" s="1">
+        <v>15278086411</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14500294952</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>15278086411</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14500294952</v>
+      <c r="A4" s="2">
+        <v>15343832971</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14179523302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>15343832971</v>
-      </c>
-      <c r="B5" s="2">
-        <v>14179523302</v>
+      <c r="A5" s="1">
+        <v>14829580401</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14328158081</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>14829580401</v>
-      </c>
-      <c r="B6" s="1">
-        <v>14328158081</v>
+      <c r="A6" s="2">
+        <v>14606410036</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14006176315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>14606410036</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14006176315</v>
+      <c r="A7" s="1">
+        <v>14282340154</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14125412841</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>14282340154</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14125412841</v>
+      <c r="A8" s="2">
+        <v>14655032215</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13933586955</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>14655032215</v>
-      </c>
-      <c r="B9" s="2">
-        <v>13933586955</v>
+      <c r="A9" s="1">
+        <v>14780780414</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13895074747</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>14780780414</v>
-      </c>
-      <c r="B10" s="1">
-        <v>13895074747</v>
+      <c r="A10" s="2">
+        <v>14618158354</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14125324078</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>14618158354</v>
-      </c>
-      <c r="B11" s="2">
-        <v>14125324078</v>
+      <c r="A11" s="1">
+        <v>14179792800</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14213160170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>14179792800</v>
-      </c>
-      <c r="B12" s="1">
-        <v>14213160170</v>
+      <c r="A12" s="2">
+        <v>14414226722</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14022679207</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>14414226722</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14022679207</v>
+      <c r="A13" s="3">
+        <f>AVERAGE(A2:A12)</f>
+        <v>14835000538.818182</v>
+      </c>
+      <c r="B13" s="3">
+        <f>AVERAGE(B2:B12)</f>
+        <v>14133626962</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f>AVERAGE(A2:A13)</f>
-        <v>15466284159.083334</v>
-      </c>
-      <c r="B14" s="3">
-        <f>AVERAGE(B2:B13)</f>
-        <v>14745229494.083334</v>
+      <c r="A14" s="4">
+        <f>_xlfn.STDEV.P(A2:A12)</f>
+        <v>552354665.38897431</v>
+      </c>
+      <c r="B14" s="4">
+        <f>_xlfn.STDEV.P(B2:B12)</f>
+        <v>166891293.33865011</v>
       </c>
     </row>
   </sheetData>
